--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamel\repos\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FF7192-202C-4CE6-85DD-BBAD7B092237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C4CDEA-DF3D-411A-B3C9-E89C35B850B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="4" activeTab="8" xr2:uid="{AA5F4E05-40BF-4D68-8B70-FC0C7B7AD523}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Scatter Chart Weeks vs. Rank" sheetId="8" r:id="rId7"/>
     <sheet name="Price Box and Whisker" sheetId="9" r:id="rId8"/>
     <sheet name="TimeSeriesAnalysis" sheetId="10" r:id="rId9"/>
-    <sheet name="Ranking Forcast" sheetId="11" r:id="rId10"/>
+    <sheet name="Ranking Forecast" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Final!$C$1:$C$261</definedName>
@@ -3669,7 +3669,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ranking Forcast'!$B$1</c:f>
+              <c:f>'Ranking Forecast'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3692,7 +3692,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Ranking Forcast'!$B$2:$B$18</c:f>
+              <c:f>'Ranking Forecast'!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3750,7 +3750,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ranking Forcast'!$C$1</c:f>
+              <c:f>'Ranking Forecast'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3773,7 +3773,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ranking Forcast'!$A$2:$A$18</c:f>
+              <c:f>'Ranking Forecast'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3833,7 +3833,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ranking Forcast'!$C$2:$C$18</c:f>
+              <c:f>'Ranking Forecast'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3867,7 +3867,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ranking Forcast'!$D$1</c:f>
+              <c:f>'Ranking Forecast'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3891,7 +3891,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ranking Forcast'!$A$2:$A$18</c:f>
+              <c:f>'Ranking Forecast'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3951,7 +3951,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ranking Forcast'!$D$2:$D$18</c:f>
+              <c:f>'Ranking Forecast'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3985,7 +3985,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ranking Forcast'!$E$1</c:f>
+              <c:f>'Ranking Forecast'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4009,7 +4009,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ranking Forcast'!$A$2:$A$18</c:f>
+              <c:f>'Ranking Forecast'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4069,7 +4069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ranking Forcast'!$E$2:$E$18</c:f>
+              <c:f>'Ranking Forecast'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
